--- a/site_audit/CON-Content-Inventory-Spreadsheet121616.xlsx
+++ b/site_audit/CON-Content-Inventory-Spreadsheet121616.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1359">
   <si>
     <t>Notes</t>
   </si>
@@ -2565,9 +2565,6 @@
     <t>Content page that provides information on current semester course schedules</t>
   </si>
   <si>
-    <t>Linked under both Programs and Alumni nav menu. Pick one.</t>
-  </si>
-  <si>
     <t>Content landing page with information for this program</t>
   </si>
   <si>
@@ -4287,6 +4284,141 @@
   </si>
   <si>
     <t>lose tabs, use accordions</t>
+  </si>
+  <si>
+    <t>delete page. Mega menus will make it unnecessary</t>
+  </si>
+  <si>
+    <t>page deleted, content moved to program page</t>
+  </si>
+  <si>
+    <t>put relevant content on admission requirements page for this program</t>
+  </si>
+  <si>
+    <t>page deleted content put on main program page</t>
+  </si>
+  <si>
+    <t>Upcoming graduates</t>
+  </si>
+  <si>
+    <t>provide information on commencement and other graduation events</t>
+  </si>
+  <si>
+    <t>accordions, text</t>
+  </si>
+  <si>
+    <t>lose tabs, lose archived video</t>
+  </si>
+  <si>
+    <t>provide important forms for students</t>
+  </si>
+  <si>
+    <t>bulleted list of links</t>
+  </si>
+  <si>
+    <t>this page has low traffic and the document links aren't being clicked on, but this looks like important information so we'll leave it as is for now</t>
+  </si>
+  <si>
+    <t>page moved to: http://www.ucdenver.edu/academics/colleges/nursing/programs-admissions/graduate-programs/DNP_MPH/Pages/default.aspx
+apply new wireframe template, replace banner image with color image</t>
+  </si>
+  <si>
+    <t>intro, video, coursework, career possibilities, alumni snapshot</t>
+  </si>
+  <si>
+    <t>provide information and registration link for this program</t>
+  </si>
+  <si>
+    <t>content, pricing and registration link</t>
+  </si>
+  <si>
+    <t>page moved to: http://www.ucdenver.edu/academics/colleges/nursing/research/caringscience/Pages/End-of-Life-coaching.aspx
+content is outdated and the page has no traffic</t>
+  </si>
+  <si>
+    <t>prospective international students</t>
+  </si>
+  <si>
+    <t>provide admission requirements for international students</t>
+  </si>
+  <si>
+    <t>bulleted list, bold statements</t>
+  </si>
+  <si>
+    <t>consider deleting this page if each program admission page has an international applicant accordion. Or leave this page and link to it if all the content on the other admission pages are the same…</t>
+  </si>
+  <si>
+    <t>welcome page for this club</t>
+  </si>
+  <si>
+    <t>accordion, intro</t>
+  </si>
+  <si>
+    <t>this content hasn't been updated in a year. Alicia mcnally reached out with request for content update, so that should be on the way. Meet our leaders section should provide brief intro to the leaders, not give a description of their duties</t>
+  </si>
+  <si>
+    <t>provide program information for this certificate</t>
+  </si>
+  <si>
+    <t>intro, course requirements, apply now button</t>
+  </si>
+  <si>
+    <t>page moved to: http://www.ucdenver.edu/academics/colleges/nursing/programs-admissions/graduate-certificates/Pages/Veteran-and-Military-Health-Care.aspx
+apply now button at top of page?
+Apply new wireframe template</t>
+  </si>
+  <si>
+    <t>provide information about this certificate corusework</t>
+  </si>
+  <si>
+    <t>intro, coursework, apply now button, video, careers, alumni snapshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page moved to: http://www.ucdenver.edu/academics/colleges/nursing/programs-admissions/graduate-programs/graduate-specialties/healthcareinformatics/Pages/informatics-post-graduate-certificate.aspx
+consider combining with master's page and model after specialties pages for consistency
+</t>
+  </si>
+  <si>
+    <t>page moved to: http://www.ucdenver.edu/academics/colleges/nursing/programs-admissions/graduate-programs/post-graduate-certificates/Pages/post-graduate-certificate.aspx
+Shorten intro</t>
+  </si>
+  <si>
+    <t>explain why post-grad certificates are useful and provide list of areas where certificates are offered</t>
+  </si>
+  <si>
+    <t>intro, link list</t>
+  </si>
+  <si>
+    <t>provide next steps for students who have been accepted to the program</t>
+  </si>
+  <si>
+    <t>remove tabs, use accordions.</t>
+  </si>
+  <si>
+    <t>provide links to scholarship opportunities</t>
+  </si>
+  <si>
+    <t>content, links, table</t>
+  </si>
+  <si>
+    <t>place external scholarships on this page?</t>
+  </si>
+  <si>
+    <t>provide information about continuing education opportunities</t>
+  </si>
+  <si>
+    <t>intro, accordion, featured event</t>
+  </si>
+  <si>
+    <t>admissions landing page with links to relevant sub-pages</t>
+  </si>
+  <si>
+    <t>intro, links</t>
+  </si>
+  <si>
+    <t>page moved to: http://www.ucdenver.edu/academics/colleges/nursing/admissions/Pages/admissions.aspx
+Apply new wireframe template (single column page, intro, links to program admission pages, next steps, deadlines table on this page?
+No side nav</t>
   </si>
 </sst>
 </file>
@@ -10584,10 +10716,10 @@
   <dimension ref="A1:L413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A297" sqref="A297"/>
+      <selection pane="bottomRight" activeCell="A350" sqref="A350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10620,12 +10752,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -10699,13 +10831,13 @@
         <v>783</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>800</v>
@@ -10717,7 +10849,7 @@
         <v>788</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10737,10 +10869,10 @@
         <v>783</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>913</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>914</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>786</v>
@@ -10752,10 +10884,10 @@
         <v>792</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -10778,10 +10910,10 @@
         <v>802</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>800</v>
@@ -10793,7 +10925,7 @@
         <v>782</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10816,10 +10948,10 @@
         <v>802</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>781</v>
@@ -10831,7 +10963,7 @@
         <v>782</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -10854,10 +10986,10 @@
         <v>802</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>814</v>
@@ -10866,10 +10998,10 @@
         <v>792</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10892,10 +11024,10 @@
         <v>804</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>781</v>
@@ -10907,7 +11039,7 @@
         <v>788</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10927,13 +11059,13 @@
         <v>783</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>814</v>
@@ -10945,7 +11077,7 @@
         <v>782</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10964,7 +11096,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
       <c r="L14" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
@@ -10984,13 +11116,13 @@
         <v>783</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>814</v>
@@ -11002,7 +11134,7 @@
         <v>782</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
@@ -11022,13 +11154,13 @@
         <v>783</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>800</v>
@@ -11040,7 +11172,7 @@
         <v>793</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11060,13 +11192,13 @@
         <v>783</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>814</v>
@@ -11075,10 +11207,10 @@
         <v>792</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11098,13 +11230,13 @@
         <v>795</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>814</v>
@@ -11116,7 +11248,7 @@
         <v>782</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -11139,10 +11271,10 @@
         <v>804</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>814</v>
@@ -11151,10 +11283,10 @@
         <v>792</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11174,13 +11306,13 @@
         <v>783</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>943</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>800</v>
@@ -11192,7 +11324,7 @@
         <v>788</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -11215,10 +11347,10 @@
         <v>802</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>945</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>946</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>781</v>
@@ -11230,7 +11362,7 @@
         <v>793</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -11253,10 +11385,10 @@
         <v>802</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>800</v>
@@ -11268,7 +11400,7 @@
         <v>788</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -11291,10 +11423,10 @@
         <v>802</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>781</v>
@@ -11303,10 +11435,10 @@
         <v>792</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -11329,10 +11461,10 @@
         <v>802</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>800</v>
@@ -11344,7 +11476,7 @@
         <v>782</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11367,10 +11499,10 @@
         <v>802</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>800</v>
@@ -11379,10 +11511,10 @@
         <v>792</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11405,10 +11537,10 @@
         <v>802</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>800</v>
@@ -11417,10 +11549,10 @@
         <v>792</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11443,10 +11575,10 @@
         <v>802</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>800</v>
@@ -11455,10 +11587,10 @@
         <v>792</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11478,13 +11610,13 @@
         <v>783</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>814</v>
@@ -11496,7 +11628,7 @@
         <v>782</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11516,13 +11648,13 @@
         <v>783</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>814</v>
@@ -11531,10 +11663,10 @@
         <v>792</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11554,13 +11686,13 @@
         <v>783</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>814</v>
@@ -11569,10 +11701,10 @@
         <v>792</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11592,13 +11724,13 @@
         <v>783</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>781</v>
@@ -11610,7 +11742,7 @@
         <v>793</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11633,10 +11765,10 @@
         <v>802</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>814</v>
@@ -11648,7 +11780,7 @@
         <v>793</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11668,13 +11800,13 @@
         <v>783</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>814</v>
@@ -11683,10 +11815,10 @@
         <v>792</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -11706,13 +11838,13 @@
         <v>783</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>781</v>
@@ -11721,10 +11853,10 @@
         <v>792</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -11744,13 +11876,13 @@
         <v>783</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>781</v>
@@ -11759,10 +11891,10 @@
         <v>792</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -11782,13 +11914,13 @@
         <v>783</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>781</v>
@@ -11797,10 +11929,10 @@
         <v>792</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11820,13 +11952,13 @@
         <v>783</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>781</v>
@@ -11835,10 +11967,10 @@
         <v>792</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11858,13 +11990,13 @@
         <v>783</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G38" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>800</v>
@@ -11876,7 +12008,7 @@
         <v>793</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11896,13 +12028,13 @@
         <v>783</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G39" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>814</v>
@@ -11914,7 +12046,7 @@
         <v>782</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11934,10 +12066,10 @@
         <v>783</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>786</v>
@@ -11949,10 +12081,10 @@
         <v>792</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -11972,10 +12104,10 @@
         <v>783</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>786</v>
@@ -11987,10 +12119,10 @@
         <v>792</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12010,10 +12142,10 @@
         <v>783</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>786</v>
@@ -12025,10 +12157,10 @@
         <v>792</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -12048,10 +12180,10 @@
         <v>783</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>983</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>984</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>786</v>
@@ -12066,7 +12198,7 @@
         <v>793</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12086,13 +12218,13 @@
         <v>783</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>814</v>
@@ -12101,10 +12233,10 @@
         <v>792</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
@@ -12124,13 +12256,13 @@
         <v>783</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>814</v>
@@ -12142,7 +12274,7 @@
         <v>782</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12162,13 +12294,13 @@
         <v>783</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="H46" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>993</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>814</v>
@@ -12177,10 +12309,10 @@
         <v>792</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -12200,13 +12332,13 @@
         <v>783</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>814</v>
@@ -12215,10 +12347,10 @@
         <v>792</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -12241,10 +12373,10 @@
         <v>820</v>
       </c>
       <c r="G48" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>814</v>
@@ -12256,7 +12388,7 @@
         <v>782</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12279,10 +12411,10 @@
         <v>804</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>1001</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>814</v>
@@ -12294,7 +12426,7 @@
         <v>788</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12311,16 +12443,16 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>804</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>781</v>
@@ -12332,7 +12464,7 @@
         <v>793</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -12355,10 +12487,10 @@
         <v>804</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>800</v>
@@ -12370,7 +12502,7 @@
         <v>793</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12393,10 +12525,10 @@
         <v>820</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>814</v>
@@ -12405,10 +12537,10 @@
         <v>792</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -12431,10 +12563,10 @@
         <v>820</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>814</v>
@@ -12443,10 +12575,10 @@
         <v>792</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -12465,7 +12597,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="2"/>
       <c r="L54" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -12488,10 +12620,10 @@
         <v>802</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>814</v>
@@ -12500,10 +12632,10 @@
         <v>792</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -12523,13 +12655,13 @@
         <v>783</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>1014</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>814</v>
@@ -12538,10 +12670,10 @@
         <v>792</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -12564,10 +12696,10 @@
         <v>802</v>
       </c>
       <c r="G57" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>1016</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>1017</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>814</v>
@@ -12576,10 +12708,10 @@
         <v>792</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12602,10 +12734,10 @@
         <v>802</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>781</v>
@@ -12617,7 +12749,7 @@
         <v>788</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12640,10 +12772,10 @@
         <v>802</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>781</v>
@@ -12652,10 +12784,10 @@
         <v>792</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -12678,10 +12810,10 @@
         <v>802</v>
       </c>
       <c r="G60" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>1023</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>814</v>
@@ -12690,10 +12822,10 @@
         <v>792</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12716,10 +12848,10 @@
         <v>802</v>
       </c>
       <c r="G61" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>1025</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>814</v>
@@ -12728,10 +12860,10 @@
         <v>792</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12754,10 +12886,10 @@
         <v>802</v>
       </c>
       <c r="G62" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>1025</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>814</v>
@@ -12766,10 +12898,10 @@
         <v>792</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12792,10 +12924,10 @@
         <v>820</v>
       </c>
       <c r="G63" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>1027</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>1028</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>800</v>
@@ -12807,7 +12939,7 @@
         <v>793</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12830,10 +12962,10 @@
         <v>802</v>
       </c>
       <c r="G64" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>1030</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>781</v>
@@ -12842,10 +12974,10 @@
         <v>792</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12868,10 +13000,10 @@
         <v>802</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>781</v>
@@ -12883,7 +13015,7 @@
         <v>782</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
@@ -12906,10 +13038,10 @@
         <v>802</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>781</v>
@@ -12921,7 +13053,7 @@
         <v>782</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -12944,10 +13076,10 @@
         <v>802</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>800</v>
@@ -12956,10 +13088,10 @@
         <v>792</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -12982,10 +13114,10 @@
         <v>802</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>814</v>
@@ -12994,10 +13126,10 @@
         <v>792</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13020,10 +13152,10 @@
         <v>802</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>800</v>
@@ -13032,10 +13164,10 @@
         <v>792</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13055,13 +13187,13 @@
         <v>783</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>814</v>
@@ -13070,10 +13202,10 @@
         <v>792</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -13093,13 +13225,13 @@
         <v>783</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>814</v>
@@ -13108,10 +13240,10 @@
         <v>792</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
@@ -13134,10 +13266,10 @@
         <v>802</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>814</v>
@@ -13149,7 +13281,7 @@
         <v>788</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -13172,10 +13304,10 @@
         <v>802</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>814</v>
@@ -13184,10 +13316,10 @@
         <v>792</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -13210,10 +13342,10 @@
         <v>802</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>800</v>
@@ -13222,10 +13354,10 @@
         <v>792</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
@@ -13248,10 +13380,10 @@
         <v>802</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>814</v>
@@ -13260,10 +13392,10 @@
         <v>792</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -13286,10 +13418,10 @@
         <v>802</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>814</v>
@@ -13298,10 +13430,10 @@
         <v>792</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13324,10 +13456,10 @@
         <v>802</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>814</v>
@@ -13336,10 +13468,10 @@
         <v>792</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13362,10 +13494,10 @@
         <v>802</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>800</v>
@@ -13377,7 +13509,7 @@
         <v>788</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -13394,16 +13526,16 @@
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>802</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>781</v>
@@ -13415,7 +13547,7 @@
         <v>793</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="283.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13438,10 +13570,10 @@
         <v>802</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>800</v>
@@ -13453,7 +13585,7 @@
         <v>788</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13476,10 +13608,10 @@
         <v>802</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>800</v>
@@ -13491,7 +13623,7 @@
         <v>782</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13514,10 +13646,10 @@
         <v>802</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>800</v>
@@ -13526,10 +13658,10 @@
         <v>792</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -13549,13 +13681,13 @@
         <v>783</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>814</v>
@@ -13564,10 +13696,10 @@
         <v>792</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13587,13 +13719,13 @@
         <v>783</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G84" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>1051</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>800</v>
@@ -13605,7 +13737,7 @@
         <v>788</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -13625,13 +13757,13 @@
         <v>783</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>781</v>
@@ -13643,7 +13775,7 @@
         <v>793</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -13663,13 +13795,13 @@
         <v>783</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>781</v>
@@ -13681,7 +13813,7 @@
         <v>788</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13701,13 +13833,13 @@
         <v>783</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>800</v>
@@ -13719,7 +13851,7 @@
         <v>788</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13738,7 +13870,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="2"/>
       <c r="L88" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13757,7 +13889,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="2"/>
       <c r="L89" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13777,13 +13909,13 @@
         <v>783</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>800</v>
@@ -13795,7 +13927,7 @@
         <v>793</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -13815,13 +13947,13 @@
         <v>783</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G91" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>800</v>
@@ -13833,7 +13965,7 @@
         <v>788</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13856,10 +13988,10 @@
         <v>804</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>800</v>
@@ -13871,7 +14003,7 @@
         <v>788</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -13894,10 +14026,10 @@
         <v>804</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>781</v>
@@ -13909,7 +14041,7 @@
         <v>793</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13929,13 +14061,13 @@
         <v>783</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>800</v>
@@ -13947,7 +14079,7 @@
         <v>793</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13967,13 +14099,13 @@
         <v>783</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>800</v>
@@ -13985,7 +14117,7 @@
         <v>793</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -14005,13 +14137,13 @@
         <v>783</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>814</v>
@@ -14020,10 +14152,10 @@
         <v>792</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14043,13 +14175,13 @@
         <v>783</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>814</v>
@@ -14058,10 +14190,10 @@
         <v>792</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14081,13 +14213,13 @@
         <v>783</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>814</v>
@@ -14096,10 +14228,10 @@
         <v>792</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14119,13 +14251,13 @@
         <v>783</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>814</v>
@@ -14134,10 +14266,10 @@
         <v>792</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -14157,13 +14289,13 @@
         <v>783</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>781</v>
@@ -14172,10 +14304,10 @@
         <v>792</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14193,7 +14325,7 @@
       </c>
       <c r="G101" s="5"/>
       <c r="L101" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="299.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14213,13 +14345,13 @@
         <v>783</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>800</v>
@@ -14231,7 +14363,7 @@
         <v>788</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -14251,13 +14383,13 @@
         <v>783</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>800</v>
@@ -14269,7 +14401,7 @@
         <v>788</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -14289,13 +14421,13 @@
         <v>783</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G104" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>814</v>
@@ -14304,10 +14436,10 @@
         <v>792</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -14327,13 +14459,13 @@
         <v>783</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G105" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>814</v>
@@ -14345,7 +14477,7 @@
         <v>788</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -14365,13 +14497,13 @@
         <v>783</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G106" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1080</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>814</v>
@@ -14380,10 +14512,10 @@
         <v>792</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14403,13 +14535,13 @@
         <v>783</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G107" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>800</v>
@@ -14421,7 +14553,7 @@
         <v>788</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14441,13 +14573,13 @@
         <v>783</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>800</v>
@@ -14459,7 +14591,7 @@
         <v>788</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14479,13 +14611,13 @@
         <v>783</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>781</v>
@@ -14497,7 +14629,7 @@
         <v>793</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14517,13 +14649,13 @@
         <v>783</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>781</v>
@@ -14535,7 +14667,7 @@
         <v>793</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -14555,13 +14687,13 @@
         <v>783</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="H111" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>875</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>781</v>
@@ -14573,7 +14705,7 @@
         <v>793</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14593,13 +14725,13 @@
         <v>783</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>781</v>
@@ -14611,7 +14743,7 @@
         <v>793</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -14631,13 +14763,13 @@
         <v>783</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G113" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>878</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>800</v>
@@ -14646,10 +14778,10 @@
         <v>792</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14669,13 +14801,13 @@
         <v>783</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>781</v>
@@ -14687,7 +14819,7 @@
         <v>793</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -14707,10 +14839,10 @@
         <v>783</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>880</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>786</v>
@@ -14725,7 +14857,7 @@
         <v>793</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14745,13 +14877,13 @@
         <v>783</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>781</v>
@@ -14763,7 +14895,7 @@
         <v>793</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14783,13 +14915,13 @@
         <v>783</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>781</v>
@@ -14801,7 +14933,7 @@
         <v>793</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14821,13 +14953,13 @@
         <v>783</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>781</v>
@@ -14839,7 +14971,7 @@
         <v>793</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -14862,7 +14994,7 @@
         <v>802</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>786</v>
@@ -14874,10 +15006,10 @@
         <v>792</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
@@ -14900,10 +15032,10 @@
         <v>802</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>781</v>
@@ -14915,7 +15047,7 @@
         <v>788</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -14935,13 +15067,13 @@
         <v>783</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>885</v>
-      </c>
       <c r="H121" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>814</v>
@@ -14950,10 +15082,10 @@
         <v>792</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -14973,13 +15105,13 @@
         <v>783</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>781</v>
@@ -14991,7 +15123,7 @@
         <v>793</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15011,13 +15143,13 @@
         <v>783</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>781</v>
@@ -15029,7 +15161,7 @@
         <v>793</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15049,13 +15181,13 @@
         <v>783</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>781</v>
@@ -15067,7 +15199,7 @@
         <v>793</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -15087,13 +15219,13 @@
         <v>783</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>781</v>
@@ -15105,7 +15237,7 @@
         <v>788</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15125,13 +15257,13 @@
         <v>783</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>781</v>
@@ -15143,7 +15275,7 @@
         <v>793</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -15163,13 +15295,13 @@
         <v>783</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>781</v>
@@ -15181,7 +15313,7 @@
         <v>788</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15201,13 +15333,13 @@
         <v>783</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>781</v>
@@ -15219,7 +15351,7 @@
         <v>793</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15239,13 +15371,13 @@
         <v>783</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>781</v>
@@ -15257,7 +15389,7 @@
         <v>793</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15277,13 +15409,13 @@
         <v>783</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>781</v>
@@ -15295,7 +15427,7 @@
         <v>793</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15315,13 +15447,13 @@
         <v>783</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>781</v>
@@ -15333,7 +15465,7 @@
         <v>793</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15353,13 +15485,13 @@
         <v>783</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>781</v>
@@ -15371,7 +15503,7 @@
         <v>793</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15391,13 +15523,13 @@
         <v>783</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>781</v>
@@ -15409,7 +15541,7 @@
         <v>793</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15429,13 +15561,13 @@
         <v>783</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>781</v>
@@ -15447,7 +15579,7 @@
         <v>793</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15467,13 +15599,13 @@
         <v>783</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>781</v>
@@ -15485,7 +15617,7 @@
         <v>793</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -15505,13 +15637,13 @@
         <v>783</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G136" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>781</v>
@@ -15523,7 +15655,7 @@
         <v>793</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -15543,13 +15675,13 @@
         <v>783</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>781</v>
@@ -15561,7 +15693,7 @@
         <v>793</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -15581,13 +15713,13 @@
         <v>783</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>781</v>
@@ -15599,7 +15731,7 @@
         <v>788</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -15619,13 +15751,13 @@
         <v>783</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G139" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>781</v>
@@ -15637,7 +15769,7 @@
         <v>793</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15657,13 +15789,13 @@
         <v>783</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>781</v>
@@ -15675,7 +15807,7 @@
         <v>788</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -15695,13 +15827,13 @@
         <v>783</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>781</v>
@@ -15713,7 +15845,7 @@
         <v>788</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -15733,10 +15865,10 @@
         <v>783</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>786</v>
@@ -15748,10 +15880,10 @@
         <v>792</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -15771,13 +15903,13 @@
         <v>783</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>781</v>
@@ -15789,7 +15921,7 @@
         <v>788</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -15809,13 +15941,13 @@
         <v>783</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>781</v>
@@ -15827,7 +15959,7 @@
         <v>788</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15847,13 +15979,13 @@
         <v>783</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>781</v>
@@ -15865,7 +15997,7 @@
         <v>793</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15885,13 +16017,13 @@
         <v>783</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>781</v>
@@ -15903,7 +16035,7 @@
         <v>793</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15923,13 +16055,13 @@
         <v>783</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>781</v>
@@ -15941,7 +16073,7 @@
         <v>793</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15961,13 +16093,13 @@
         <v>783</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>781</v>
@@ -15979,7 +16111,7 @@
         <v>793</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -15999,13 +16131,13 @@
         <v>783</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>781</v>
@@ -16017,7 +16149,7 @@
         <v>793</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16037,13 +16169,13 @@
         <v>783</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>781</v>
@@ -16055,7 +16187,7 @@
         <v>793</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16075,13 +16207,13 @@
         <v>783</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>781</v>
@@ -16093,7 +16225,7 @@
         <v>793</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16113,13 +16245,13 @@
         <v>783</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>781</v>
@@ -16131,7 +16263,7 @@
         <v>793</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16151,13 +16283,13 @@
         <v>783</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>781</v>
@@ -16169,7 +16301,7 @@
         <v>793</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16189,13 +16321,13 @@
         <v>783</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>781</v>
@@ -16207,7 +16339,7 @@
         <v>793</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16227,13 +16359,13 @@
         <v>783</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>781</v>
@@ -16245,7 +16377,7 @@
         <v>793</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16265,13 +16397,13 @@
         <v>783</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>781</v>
@@ -16283,7 +16415,7 @@
         <v>793</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16303,13 +16435,13 @@
         <v>783</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>781</v>
@@ -16321,7 +16453,7 @@
         <v>793</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16341,13 +16473,13 @@
         <v>783</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>781</v>
@@ -16359,7 +16491,7 @@
         <v>793</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16379,13 +16511,13 @@
         <v>783</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>781</v>
@@ -16397,7 +16529,7 @@
         <v>793</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16417,13 +16549,13 @@
         <v>783</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>781</v>
@@ -16435,7 +16567,7 @@
         <v>793</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16455,13 +16587,13 @@
         <v>783</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>781</v>
@@ -16473,7 +16605,7 @@
         <v>793</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16493,13 +16625,13 @@
         <v>783</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>781</v>
@@ -16511,7 +16643,7 @@
         <v>793</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16531,13 +16663,13 @@
         <v>783</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>781</v>
@@ -16549,7 +16681,7 @@
         <v>793</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16569,13 +16701,13 @@
         <v>783</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>781</v>
@@ -16587,7 +16719,7 @@
         <v>793</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16607,13 +16739,13 @@
         <v>783</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>781</v>
@@ -16625,7 +16757,7 @@
         <v>793</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16645,13 +16777,13 @@
         <v>783</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>781</v>
@@ -16663,7 +16795,7 @@
         <v>793</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -16683,13 +16815,13 @@
         <v>783</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>781</v>
@@ -16701,7 +16833,7 @@
         <v>788</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16721,13 +16853,13 @@
         <v>783</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>781</v>
@@ -16739,7 +16871,7 @@
         <v>793</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -16759,13 +16891,13 @@
         <v>783</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>781</v>
@@ -16777,7 +16909,7 @@
         <v>788</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -16797,13 +16929,13 @@
         <v>783</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>781</v>
@@ -16815,7 +16947,7 @@
         <v>788</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -16835,13 +16967,13 @@
         <v>783</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>781</v>
@@ -16853,7 +16985,7 @@
         <v>788</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16873,13 +17005,13 @@
         <v>783</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>781</v>
@@ -16891,7 +17023,7 @@
         <v>793</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16911,13 +17043,13 @@
         <v>783</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>781</v>
@@ -16929,7 +17061,7 @@
         <v>793</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -16949,13 +17081,13 @@
         <v>783</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>781</v>
@@ -16967,7 +17099,7 @@
         <v>788</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -16987,13 +17119,13 @@
         <v>783</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>781</v>
@@ -17005,7 +17137,7 @@
         <v>793</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17028,10 +17160,10 @@
         <v>802</v>
       </c>
       <c r="G176" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>781</v>
@@ -17043,7 +17175,7 @@
         <v>793</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17063,13 +17195,13 @@
         <v>783</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>781</v>
@@ -17078,10 +17210,10 @@
         <v>792</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17104,7 +17236,7 @@
         <v>802</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>786</v>
@@ -17119,7 +17251,7 @@
         <v>788</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
@@ -17139,13 +17271,13 @@
         <v>783</v>
       </c>
       <c r="F179" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G179" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="H179" s="2" t="s">
         <v>1092</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>1093</v>
       </c>
       <c r="I179" s="2" t="s">
         <v>800</v>
@@ -17157,7 +17289,7 @@
         <v>788</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17177,13 +17309,13 @@
         <v>783</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G180" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H180" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>1096</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>814</v>
@@ -17195,7 +17327,7 @@
         <v>788</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -17215,13 +17347,13 @@
         <v>783</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>781</v>
@@ -17233,7 +17365,7 @@
         <v>793</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
@@ -17253,13 +17385,13 @@
         <v>795</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G182" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="G182" s="5" t="s">
+      <c r="H182" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>1100</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>781</v>
@@ -17271,7 +17403,7 @@
         <v>788</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17291,13 +17423,13 @@
         <v>783</v>
       </c>
       <c r="F183" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G183" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="H183" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>1104</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>781</v>
@@ -17309,7 +17441,7 @@
         <v>788</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -17329,13 +17461,13 @@
         <v>783</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G184" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H184" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>1107</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>800</v>
@@ -17347,7 +17479,7 @@
         <v>788</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -17367,13 +17499,13 @@
         <v>783</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>781</v>
@@ -17385,7 +17517,7 @@
         <v>793</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17405,13 +17537,13 @@
         <v>795</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G186" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H186" s="2" t="s">
         <v>1108</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>1109</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>814</v>
@@ -17423,7 +17555,7 @@
         <v>788</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17443,13 +17575,13 @@
         <v>783</v>
       </c>
       <c r="F187" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H187" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>1112</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>800</v>
@@ -17461,7 +17593,7 @@
         <v>793</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -17481,13 +17613,13 @@
         <v>783</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>781</v>
@@ -17499,7 +17631,7 @@
         <v>793</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -17519,10 +17651,10 @@
         <v>783</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>786</v>
@@ -17537,7 +17669,7 @@
         <v>793</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -17557,13 +17689,13 @@
         <v>783</v>
       </c>
       <c r="F190" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G190" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="H190" s="2" t="s">
         <v>1215</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>1216</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>781</v>
@@ -17575,7 +17707,7 @@
         <v>788</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -17595,13 +17727,13 @@
         <v>783</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>781</v>
@@ -17613,7 +17745,7 @@
         <v>793</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -17648,7 +17780,7 @@
         <v>792</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L192" s="1" t="s">
         <v>817</v>
@@ -17674,10 +17806,10 @@
         <v>802</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>800</v>
@@ -17689,7 +17821,7 @@
         <v>788</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -17709,13 +17841,13 @@
         <v>783</v>
       </c>
       <c r="F194" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G194" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="H194" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>781</v>
@@ -17727,7 +17859,7 @@
         <v>793</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -17747,13 +17879,13 @@
         <v>783</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>800</v>
@@ -17765,7 +17897,7 @@
         <v>788</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -17801,13 +17933,13 @@
         <v>783</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I197" s="2" t="s">
         <v>800</v>
@@ -17819,7 +17951,7 @@
         <v>788</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -17845,7 +17977,7 @@
         <v>791</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I198" s="2" t="s">
         <v>781</v>
@@ -17854,10 +17986,10 @@
         <v>792</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -17880,10 +18012,10 @@
         <v>802</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I199" s="2" t="s">
         <v>814</v>
@@ -17895,7 +18027,7 @@
         <v>782</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -17918,10 +18050,10 @@
         <v>802</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I200" s="2" t="s">
         <v>814</v>
@@ -17930,10 +18062,10 @@
         <v>792</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -17956,10 +18088,10 @@
         <v>820</v>
       </c>
       <c r="G201" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="H201" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>814</v>
@@ -17971,7 +18103,7 @@
         <v>782</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -17991,13 +18123,13 @@
         <v>783</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G202" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H202" s="2" t="s">
         <v>1226</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>1227</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>800</v>
@@ -18009,7 +18141,7 @@
         <v>788</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -18029,13 +18161,13 @@
         <v>783</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G203" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>1226</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>1227</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>800</v>
@@ -18047,7 +18179,7 @@
         <v>788</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18083,13 +18215,13 @@
         <v>795</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G205" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H205" s="2" t="s">
         <v>1229</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>1230</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>800</v>
@@ -18101,7 +18233,7 @@
         <v>788</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -18121,13 +18253,13 @@
         <v>783</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G206" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H206" s="2" t="s">
         <v>1232</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>1233</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>800</v>
@@ -18139,7 +18271,7 @@
         <v>788</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18159,13 +18291,13 @@
         <v>795</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G207" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H207" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>1237</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>800</v>
@@ -18177,7 +18309,7 @@
         <v>788</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -18197,13 +18329,13 @@
         <v>783</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>800</v>
@@ -18215,7 +18347,7 @@
         <v>788</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18235,13 +18367,13 @@
         <v>783</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G209" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H209" s="2" t="s">
         <v>1241</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>1242</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>800</v>
@@ -18253,7 +18385,7 @@
         <v>788</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18273,13 +18405,13 @@
         <v>783</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>800</v>
@@ -18291,7 +18423,7 @@
         <v>782</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18327,13 +18459,13 @@
         <v>783</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>781</v>
@@ -18345,7 +18477,7 @@
         <v>793</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -18368,7 +18500,7 @@
         <v>802</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>786</v>
@@ -18383,7 +18515,7 @@
         <v>788</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -18421,7 +18553,7 @@
         <v>788</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
@@ -18459,7 +18591,7 @@
         <v>788</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18478,7 +18610,7 @@
       <c r="G216" s="5"/>
       <c r="H216" s="2"/>
       <c r="L216" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18513,10 +18645,10 @@
         <v>792</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18535,7 +18667,7 @@
       <c r="G218" s="5"/>
       <c r="H218" s="2"/>
       <c r="L218" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18571,13 +18703,13 @@
         <v>783</v>
       </c>
       <c r="F220" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G220" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="G220" s="5" t="s">
+      <c r="H220" s="2" t="s">
         <v>1248</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>1249</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>800</v>
@@ -18589,7 +18721,7 @@
         <v>782</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
@@ -18627,7 +18759,7 @@
         <v>788</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18646,7 +18778,7 @@
       <c r="G222" s="5"/>
       <c r="H222" s="2"/>
       <c r="L222" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -18666,13 +18798,13 @@
         <v>783</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G223" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H223" s="2" t="s">
         <v>1254</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>1255</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>800</v>
@@ -18684,7 +18816,7 @@
         <v>782</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -18704,13 +18836,13 @@
         <v>783</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G224" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H224" s="2" t="s">
         <v>1257</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>1258</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>814</v>
@@ -18722,7 +18854,7 @@
         <v>782</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18760,7 +18892,7 @@
         <v>788</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18783,10 +18915,10 @@
         <v>802</v>
       </c>
       <c r="G226" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H226" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>800</v>
@@ -18853,13 +18985,13 @@
         <v>783</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G228" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>1261</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>1262</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>800</v>
@@ -18871,7 +19003,7 @@
         <v>788</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18891,13 +19023,13 @@
         <v>783</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G229" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H229" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>1267</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>800</v>
@@ -18909,7 +19041,7 @@
         <v>788</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="230" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -18929,13 +19061,13 @@
         <v>783</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G230" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H230" s="2" t="s">
         <v>1268</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>800</v>
@@ -18947,7 +19079,7 @@
         <v>788</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -18967,13 +19099,13 @@
         <v>783</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G231" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H231" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>1273</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>800</v>
@@ -18985,7 +19117,7 @@
         <v>782</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19004,7 +19136,7 @@
       <c r="G232" s="5"/>
       <c r="H232" s="2"/>
       <c r="L232" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19027,10 +19159,10 @@
         <v>802</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I233" s="2" t="s">
         <v>781</v>
@@ -19042,7 +19174,7 @@
         <v>793</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -19062,13 +19194,13 @@
         <v>783</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I234" s="2" t="s">
         <v>781</v>
@@ -19080,7 +19212,7 @@
         <v>793</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
@@ -19103,7 +19235,7 @@
         <v>802</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>786</v>
@@ -19118,7 +19250,7 @@
         <v>788</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19141,10 +19273,10 @@
         <v>802</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I236" s="2" t="s">
         <v>781</v>
@@ -19156,7 +19288,7 @@
         <v>788</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19179,10 +19311,10 @@
         <v>802</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I237" s="2" t="s">
         <v>800</v>
@@ -19194,7 +19326,7 @@
         <v>788</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19217,7 +19349,7 @@
         <v>802</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>786</v>
@@ -19232,7 +19364,7 @@
         <v>788</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="220.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19270,7 +19402,7 @@
         <v>788</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19293,10 +19425,10 @@
         <v>802</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I240" s="2" t="s">
         <v>800</v>
@@ -19305,10 +19437,10 @@
         <v>792</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19331,10 +19463,10 @@
         <v>802</v>
       </c>
       <c r="G241" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H241" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="I241" s="2" t="s">
         <v>814</v>
@@ -19346,7 +19478,7 @@
         <v>782</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="242" spans="1:12" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
@@ -19384,7 +19516,7 @@
         <v>788</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -19404,13 +19536,13 @@
         <v>783</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G243" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H243" s="2" t="s">
         <v>1275</v>
-      </c>
-      <c r="H243" s="2" t="s">
-        <v>1276</v>
       </c>
       <c r="I243" s="2" t="s">
         <v>800</v>
@@ -19422,7 +19554,7 @@
         <v>793</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -19441,7 +19573,7 @@
       <c r="G244" s="5"/>
       <c r="H244" s="2"/>
       <c r="L244" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19461,13 +19593,13 @@
         <v>783</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G245" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H245" s="2" t="s">
         <v>1279</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>1280</v>
       </c>
       <c r="I245" s="2" t="s">
         <v>800</v>
@@ -19479,7 +19611,7 @@
         <v>793</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="246" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -19499,13 +19631,13 @@
         <v>783</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G246" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H246" s="2" t="s">
         <v>1279</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>1280</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>800</v>
@@ -19517,7 +19649,7 @@
         <v>793</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -19536,7 +19668,7 @@
       <c r="G247" s="5"/>
       <c r="H247" s="2"/>
       <c r="L247" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="248" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -19555,7 +19687,7 @@
       <c r="G248" s="5"/>
       <c r="H248" s="2"/>
       <c r="L248" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -19575,13 +19707,13 @@
         <v>783</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G249" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H249" s="2" t="s">
         <v>1283</v>
-      </c>
-      <c r="H249" s="2" t="s">
-        <v>1284</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>781</v>
@@ -19610,13 +19742,13 @@
         <v>783</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>800</v>
@@ -19628,7 +19760,7 @@
         <v>788</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="251" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19647,7 +19779,7 @@
       <c r="G251" s="5"/>
       <c r="H251" s="2"/>
       <c r="L251" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19699,13 +19831,13 @@
         <v>783</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G254" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H254" s="2" t="s">
         <v>1289</v>
-      </c>
-      <c r="H254" s="2" t="s">
-        <v>1290</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>800</v>
@@ -19717,7 +19849,7 @@
         <v>793</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="255" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19736,7 +19868,7 @@
       <c r="G255" s="5"/>
       <c r="H255" s="2"/>
       <c r="L255" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -19756,13 +19888,13 @@
         <v>783</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I256" s="2" t="s">
         <v>800</v>
@@ -19774,7 +19906,7 @@
         <v>782</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="257" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19826,13 +19958,13 @@
         <v>783</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I259" s="2" t="s">
         <v>800</v>
@@ -19844,7 +19976,7 @@
         <v>782</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="260" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -19863,7 +19995,7 @@
       <c r="G260" s="5"/>
       <c r="H260" s="2"/>
       <c r="L260" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="261" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19882,7 +20014,7 @@
       <c r="G261" s="5"/>
       <c r="H261" s="2"/>
       <c r="L261" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="262" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -19902,13 +20034,13 @@
         <v>795</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G262" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H262" s="2" t="s">
         <v>1295</v>
-      </c>
-      <c r="H262" s="2" t="s">
-        <v>1296</v>
       </c>
       <c r="I262" s="2" t="s">
         <v>814</v>
@@ -19920,7 +20052,7 @@
         <v>782</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -19940,13 +20072,13 @@
         <v>783</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G263" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H263" s="2" t="s">
         <v>1298</v>
-      </c>
-      <c r="H263" s="2" t="s">
-        <v>1299</v>
       </c>
       <c r="I263" s="2" t="s">
         <v>800</v>
@@ -19958,7 +20090,7 @@
         <v>793</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -19978,13 +20110,13 @@
         <v>783</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G264" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H264" s="2" t="s">
         <v>1301</v>
-      </c>
-      <c r="H264" s="2" t="s">
-        <v>1302</v>
       </c>
       <c r="I264" s="2" t="s">
         <v>781</v>
@@ -20013,13 +20145,13 @@
         <v>783</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I265" s="2" t="s">
         <v>781</v>
@@ -20031,7 +20163,7 @@
         <v>793</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20051,13 +20183,13 @@
         <v>783</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I266" s="2" t="s">
         <v>781</v>
@@ -20069,7 +20201,7 @@
         <v>793</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20089,13 +20221,13 @@
         <v>783</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I267" s="2" t="s">
         <v>781</v>
@@ -20107,7 +20239,7 @@
         <v>793</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20127,13 +20259,13 @@
         <v>783</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I268" s="2" t="s">
         <v>781</v>
@@ -20145,7 +20277,7 @@
         <v>793</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20165,13 +20297,13 @@
         <v>783</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I269" s="2" t="s">
         <v>781</v>
@@ -20183,7 +20315,7 @@
         <v>793</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20203,13 +20335,13 @@
         <v>783</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I270" s="2" t="s">
         <v>781</v>
@@ -20221,7 +20353,7 @@
         <v>793</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20241,13 +20373,13 @@
         <v>783</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I271" s="2" t="s">
         <v>781</v>
@@ -20259,7 +20391,7 @@
         <v>793</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20279,13 +20411,13 @@
         <v>783</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I272" s="2" t="s">
         <v>781</v>
@@ -20297,7 +20429,7 @@
         <v>793</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20317,13 +20449,13 @@
         <v>783</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I273" s="2" t="s">
         <v>781</v>
@@ -20335,7 +20467,7 @@
         <v>793</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20355,13 +20487,13 @@
         <v>783</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I274" s="2" t="s">
         <v>781</v>
@@ -20373,7 +20505,7 @@
         <v>793</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20393,13 +20525,13 @@
         <v>783</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I275" s="2" t="s">
         <v>781</v>
@@ -20411,7 +20543,7 @@
         <v>793</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20431,13 +20563,13 @@
         <v>783</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G276" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H276" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="H276" s="2" t="s">
-        <v>1304</v>
       </c>
       <c r="I276" s="2" t="s">
         <v>781</v>
@@ -20497,7 +20629,7 @@
       <c r="G279" s="5"/>
       <c r="H279" s="2"/>
       <c r="L279" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -20517,13 +20649,13 @@
         <v>783</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G280" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H280" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>1314</v>
       </c>
       <c r="I280" s="2" t="s">
         <v>800</v>
@@ -20535,7 +20667,7 @@
         <v>788</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20555,13 +20687,13 @@
         <v>783</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I281" s="2" t="s">
         <v>781</v>
@@ -20573,7 +20705,7 @@
         <v>793</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20593,13 +20725,13 @@
         <v>783</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I282" s="2" t="s">
         <v>781</v>
@@ -20611,7 +20743,7 @@
         <v>793</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -20647,13 +20779,13 @@
         <v>783</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G284" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H284" s="2" t="s">
         <v>1306</v>
-      </c>
-      <c r="H284" s="2" t="s">
-        <v>1307</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>800</v>
@@ -20665,7 +20797,7 @@
         <v>788</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -20685,13 +20817,13 @@
         <v>783</v>
       </c>
       <c r="F285" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G285" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="G285" s="5" t="s">
+      <c r="H285" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="H285" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="I285" s="2" t="s">
         <v>814</v>
@@ -20700,10 +20832,10 @@
         <v>792</v>
       </c>
       <c r="K285" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
@@ -20726,10 +20858,10 @@
         <v>802</v>
       </c>
       <c r="G286" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="H286" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="H286" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="I286" s="2" t="s">
         <v>800</v>
@@ -20741,7 +20873,7 @@
         <v>788</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -20760,7 +20892,7 @@
       <c r="G287" s="5"/>
       <c r="H287" s="2"/>
       <c r="L287" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -20780,13 +20912,13 @@
         <v>783</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>781</v>
@@ -20798,7 +20930,7 @@
         <v>793</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="289" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -20821,10 +20953,10 @@
         <v>804</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I289" s="2" t="s">
         <v>800</v>
@@ -20836,7 +20968,7 @@
         <v>788</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="290" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -20856,13 +20988,13 @@
         <v>783</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G290" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H290" s="2" t="s">
         <v>1309</v>
-      </c>
-      <c r="H290" s="2" t="s">
-        <v>1310</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>800</v>
@@ -20874,7 +21006,7 @@
         <v>793</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="291" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
@@ -20894,13 +21026,13 @@
         <v>783</v>
       </c>
       <c r="F291" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G291" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="G291" s="5" t="s">
+      <c r="H291" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="H291" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>800</v>
@@ -20912,7 +21044,7 @@
         <v>788</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="292" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -20932,13 +21064,13 @@
         <v>783</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I292" s="2" t="s">
         <v>800</v>
@@ -20950,7 +21082,7 @@
         <v>788</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="293" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -20970,13 +21102,13 @@
         <v>783</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I293" s="2" t="s">
         <v>800</v>
@@ -20988,7 +21120,7 @@
         <v>788</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="294" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -21007,7 +21139,7 @@
       <c r="G294" s="5"/>
       <c r="H294" s="2"/>
       <c r="L294" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="295" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -21042,8 +21174,8 @@
       <c r="G296" s="5"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A297" s="12" t="s">
+    <row r="297" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B297" s="12" t="s">
@@ -21055,8 +21187,30 @@
       <c r="D297" s="11">
         <v>0.37524177949709864</v>
       </c>
-      <c r="G297" s="5"/>
-      <c r="H297" s="2"/>
+      <c r="E297" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J297" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K297" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>1324</v>
+      </c>
     </row>
     <row r="298" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
@@ -21078,10 +21232,10 @@
         <v>802</v>
       </c>
       <c r="G298" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="H298" s="2" t="s">
         <v>868</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>869</v>
       </c>
       <c r="I298" s="2" t="s">
         <v>800</v>
@@ -21093,7 +21247,7 @@
         <v>793</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -21132,10 +21286,10 @@
         <v>802</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I300" s="2" t="s">
         <v>800</v>
@@ -21147,11 +21301,11 @@
         <v>788</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A301" s="12" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="19" t="s">
         <v>173</v>
       </c>
       <c r="B301" s="12" t="s">
@@ -21166,8 +21320,8 @@
       <c r="G301" s="5"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A302" s="12" t="s">
+    <row r="302" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B302" s="12" t="s">
@@ -21179,8 +21333,30 @@
       <c r="D302" s="11">
         <v>0.33505154639175255</v>
       </c>
-      <c r="G302" s="5"/>
-      <c r="H302" s="2"/>
+      <c r="E302" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K302" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="303" spans="1:12" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="15" t="s">
@@ -21217,7 +21393,7 @@
         <v>782</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="304" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -21237,13 +21413,13 @@
         <v>783</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G304" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="H304" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="H304" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="I304" s="2" t="s">
         <v>781</v>
@@ -21255,8 +21431,8 @@
         <v>793</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A305" s="12" t="s">
+    <row r="305" spans="1:12" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B305" s="12" t="s">
@@ -21268,11 +21444,33 @@
       <c r="D305" s="11">
         <v>0.3329032258064516</v>
       </c>
-      <c r="G305" s="5"/>
-      <c r="H305" s="2"/>
-    </row>
-    <row r="306" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A306" s="12" t="s">
+      <c r="E305" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J305" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K305" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B306" s="12" t="s">
@@ -21286,9 +21484,12 @@
       </c>
       <c r="G306" s="5"/>
       <c r="H306" s="2"/>
-    </row>
-    <row r="307" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A307" s="12" t="s">
+      <c r="L306" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B307" s="12" t="s">
@@ -21300,8 +21501,30 @@
       <c r="D307" s="11">
         <v>0.3324742268041237</v>
       </c>
-      <c r="G307" s="5"/>
-      <c r="H307" s="2"/>
+      <c r="E307" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G307" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>1332</v>
+      </c>
     </row>
     <row r="308" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
@@ -21323,10 +21546,10 @@
         <v>802</v>
       </c>
       <c r="G308" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="H308" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="H308" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="I308" s="2" t="s">
         <v>800</v>
@@ -21338,7 +21561,7 @@
         <v>788</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="309" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -21376,7 +21599,7 @@
         <v>788</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -21417,8 +21640,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A311" s="12" t="s">
+    <row r="311" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B311" s="12" t="s">
@@ -21432,9 +21655,15 @@
       </c>
       <c r="G311" s="5"/>
       <c r="H311" s="2"/>
-    </row>
-    <row r="312" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A312" s="12" t="s">
+      <c r="K311" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B312" s="12" t="s">
@@ -21448,6 +21677,9 @@
       </c>
       <c r="G312" s="5"/>
       <c r="H312" s="2"/>
+      <c r="L312" s="1" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="313" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="15" t="s">
@@ -21466,10 +21698,10 @@
         <v>777</v>
       </c>
       <c r="F313" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G313" s="5" t="s">
         <v>840</v>
-      </c>
-      <c r="G313" s="5" t="s">
-        <v>841</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>786</v>
@@ -21484,7 +21716,7 @@
         <v>793</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="314" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -21507,7 +21739,7 @@
         <v>802</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>786</v>
@@ -21519,14 +21751,14 @@
         <v>792</v>
       </c>
       <c r="K314" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A315" s="12" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B315" s="12" t="s">
@@ -21541,8 +21773,8 @@
       <c r="G315" s="5"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A316" s="12" t="s">
+    <row r="316" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B316" s="12" t="s">
@@ -21554,11 +21786,33 @@
       <c r="D316" s="11">
         <v>0.25193798449612403</v>
       </c>
-      <c r="G316" s="5"/>
-      <c r="H316" s="2"/>
-    </row>
-    <row r="317" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A317" s="12" t="s">
+      <c r="E316" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J316" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K316" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B317" s="12" t="s">
@@ -21572,9 +21826,15 @@
       </c>
       <c r="G317" s="5"/>
       <c r="H317" s="2"/>
-    </row>
-    <row r="318" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A318" s="12" t="s">
+      <c r="K317" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="21" t="s">
         <v>149</v>
       </c>
       <c r="B318" s="12" t="s">
@@ -21588,9 +21848,12 @@
       </c>
       <c r="G318" s="5"/>
       <c r="H318" s="2"/>
-    </row>
-    <row r="319" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A319" s="12" t="s">
+      <c r="L318" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B319" s="12" t="s">
@@ -21604,9 +21867,15 @@
       </c>
       <c r="G319" s="5"/>
       <c r="H319" s="2"/>
-    </row>
-    <row r="320" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A320" s="12" t="s">
+      <c r="K319" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B320" s="12" t="s">
@@ -21618,8 +21887,30 @@
       <c r="D320" s="11">
         <v>0.25193798449612403</v>
       </c>
-      <c r="G320" s="5"/>
-      <c r="H320" s="2"/>
+      <c r="E320" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I320" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="J320" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K320" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>1339</v>
+      </c>
     </row>
     <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
@@ -21638,13 +21929,13 @@
         <v>783</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I321" s="2" t="s">
         <v>781</v>
@@ -21656,7 +21947,7 @@
         <v>793</v>
       </c>
       <c r="L321" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -21676,13 +21967,13 @@
         <v>783</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I322" s="2" t="s">
         <v>781</v>
@@ -21694,11 +21985,11 @@
         <v>793</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A323" s="12" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B323" s="12" t="s">
@@ -21712,9 +22003,12 @@
       </c>
       <c r="G323" s="5"/>
       <c r="H323" s="2"/>
-    </row>
-    <row r="324" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A324" s="12" t="s">
+      <c r="L323" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B324" s="12" t="s">
@@ -21726,11 +22020,33 @@
       <c r="D324" s="11">
         <v>0.2495164410058027</v>
       </c>
-      <c r="G324" s="5"/>
-      <c r="H324" s="2"/>
-    </row>
-    <row r="325" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A325" s="12" t="s">
+      <c r="E324" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I324" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J324" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K324" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="19" t="s">
         <v>95</v>
       </c>
       <c r="B325" s="12" t="s">
@@ -21777,14 +22093,14 @@
         <v>792</v>
       </c>
       <c r="K326" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A327" s="12" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B327" s="12" t="s">
@@ -21799,8 +22115,8 @@
       <c r="G327" s="5"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A328" s="12" t="s">
+    <row r="328" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B328" s="12" t="s">
@@ -21812,8 +22128,30 @@
       <c r="D328" s="11">
         <v>0.22164948453608246</v>
       </c>
-      <c r="G328" s="5"/>
-      <c r="H328" s="2"/>
+      <c r="E328" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K328" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="329" spans="1:12" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="15" t="s">
@@ -21835,10 +22173,10 @@
         <v>802</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I329" s="2" t="s">
         <v>814</v>
@@ -21850,11 +22188,11 @@
         <v>782</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A330" s="12" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B330" s="12" t="s">
@@ -21868,9 +22206,12 @@
       </c>
       <c r="G330" s="5"/>
       <c r="H330" s="2"/>
-    </row>
-    <row r="331" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A331" s="12" t="s">
+      <c r="L330" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B331" s="12" t="s">
@@ -21884,9 +22225,12 @@
       </c>
       <c r="G331" s="5"/>
       <c r="H331" s="2"/>
-    </row>
-    <row r="332" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A332" s="12" t="s">
+      <c r="L331" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B332" s="12" t="s">
@@ -21898,11 +22242,33 @@
       <c r="D332" s="11">
         <v>0.20123839009287925</v>
       </c>
-      <c r="G332" s="5"/>
-      <c r="H332" s="2"/>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A333" s="12" t="s">
+      <c r="E332" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I332" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J332" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K332" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B333" s="12" t="s">
@@ -21914,8 +22280,30 @@
       <c r="D333" s="11">
         <v>0.20123839009287925</v>
       </c>
-      <c r="G333" s="5"/>
-      <c r="H333" s="2"/>
+      <c r="E333" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J333" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K333" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>1350</v>
+      </c>
     </row>
     <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
@@ -21934,13 +22322,13 @@
         <v>783</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I334" s="2" t="s">
         <v>781</v>
@@ -21952,11 +22340,11 @@
         <v>793</v>
       </c>
       <c r="L334" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A335" s="12" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B335" s="12" t="s">
@@ -21970,6 +22358,9 @@
       </c>
       <c r="G335" s="5"/>
       <c r="H335" s="2"/>
+      <c r="L335" s="1" t="s">
+        <v>1245</v>
+      </c>
     </row>
     <row r="336" spans="1:12" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="15" t="s">
@@ -22006,7 +22397,7 @@
         <v>782</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="337" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -22044,11 +22435,11 @@
         <v>782</v>
       </c>
       <c r="L337" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A338" s="12" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B338" s="12" t="s">
@@ -22060,11 +22451,33 @@
       <c r="D338" s="11">
         <v>0.16752577319587628</v>
       </c>
-      <c r="G338" s="5"/>
-      <c r="H338" s="2"/>
-    </row>
-    <row r="339" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A339" s="12" t="s">
+      <c r="E338" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J338" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K338" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B339" s="12" t="s">
@@ -22078,9 +22491,12 @@
       </c>
       <c r="G339" s="5"/>
       <c r="H339" s="2"/>
-    </row>
-    <row r="340" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A340" s="12" t="s">
+      <c r="L339" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B340" s="12" t="s">
@@ -22092,10 +22508,26 @@
       <c r="D340" s="11">
         <v>0.1664516129032258</v>
       </c>
-      <c r="G340" s="5"/>
-      <c r="H340" s="2"/>
-      <c r="L340" s="1" t="s">
-        <v>822</v>
+      <c r="E340" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I340" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="J340" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K340" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="341" spans="1:12" ht="126" hidden="1" x14ac:dyDescent="0.25">
@@ -22130,10 +22562,10 @@
         <v>787</v>
       </c>
       <c r="K341" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L341" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="L341" s="1" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -22156,7 +22588,7 @@
         <v>802</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>786</v>
@@ -22171,11 +22603,11 @@
         <v>788</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A343" s="12" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B343" s="12" t="s">
@@ -22187,8 +22619,30 @@
       <c r="D343" s="11">
         <v>0.1425414364640884</v>
       </c>
-      <c r="G343" s="5"/>
-      <c r="H343" s="2"/>
+      <c r="E343" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G343" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="K343" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="L343" s="1" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="344" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A344" s="12" t="s">
@@ -22226,10 +22680,10 @@
         <v>802</v>
       </c>
       <c r="G345" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="H345" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="H345" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="I345" s="2" t="s">
         <v>814</v>
@@ -22241,7 +22695,7 @@
         <v>782</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="346" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -22279,7 +22733,7 @@
         <v>788</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="347" spans="1:12" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
@@ -22302,10 +22756,10 @@
         <v>802</v>
       </c>
       <c r="G347" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="H347" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="H347" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="I347" s="2" t="s">
         <v>814</v>
@@ -22317,7 +22771,7 @@
         <v>782</v>
       </c>
       <c r="L347" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="348" spans="1:12" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
@@ -22343,7 +22797,7 @@
         <v>796</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>781</v>
@@ -22352,14 +22806,14 @@
         <v>792</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="349" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A349" s="12" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B349" s="12" t="s">
@@ -22373,6 +22827,9 @@
       </c>
       <c r="G349" s="5"/>
       <c r="H349" s="2"/>
+      <c r="L349" s="1" t="s">
+        <v>1245</v>
+      </c>
     </row>
     <row r="350" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A350" s="12" t="s">
@@ -22406,8 +22863,8 @@
       <c r="G351" s="5"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A352" s="12" t="s">
+    <row r="352" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B352" s="12" t="s">
@@ -22422,8 +22879,8 @@
       <c r="G352" s="5"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A353" s="12" t="s">
+    <row r="353" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B353" s="12" t="s">
@@ -22438,8 +22895,8 @@
       <c r="G353" s="5"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A354" s="12" t="s">
+    <row r="354" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B354" s="12" t="s">
@@ -22454,7 +22911,7 @@
       <c r="G354" s="5"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="12" t="s">
         <v>169</v>
       </c>
@@ -22470,8 +22927,8 @@
       <c r="G355" s="5"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A356" s="12" t="s">
+    <row r="356" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B356" s="12" t="s">
@@ -22485,8 +22942,11 @@
       </c>
       <c r="G356" s="5"/>
       <c r="H356" s="2"/>
-    </row>
-    <row r="357" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L356" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
         <v>175</v>
       </c>
@@ -22502,8 +22962,8 @@
       <c r="G357" s="5"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A358" s="12" t="s">
+    <row r="358" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="21" t="s">
         <v>182</v>
       </c>
       <c r="B358" s="12" t="s">
@@ -22517,9 +22977,12 @@
       </c>
       <c r="G358" s="5"/>
       <c r="H358" s="2"/>
-    </row>
-    <row r="359" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A359" s="12" t="s">
+      <c r="L358" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="21" t="s">
         <v>183</v>
       </c>
       <c r="B359" s="12" t="s">
@@ -22533,8 +22996,11 @@
       </c>
       <c r="G359" s="5"/>
       <c r="H359" s="2"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L359" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
         <v>204</v>
       </c>
@@ -22550,7 +23016,7 @@
       <c r="G360" s="5"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="12" t="s">
         <v>206</v>
       </c>
@@ -22566,7 +23032,7 @@
       <c r="G361" s="5"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="16" t="s">
         <v>208</v>
       </c>
@@ -22582,7 +23048,7 @@
       <c r="G362" s="5"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
         <v>236</v>
       </c>
@@ -22598,7 +23064,7 @@
       <c r="G363" s="5"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
         <v>238</v>
       </c>
@@ -22614,8 +23080,8 @@
       <c r="G364" s="5"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A365" s="12" t="s">
+    <row r="365" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="21" t="s">
         <v>241</v>
       </c>
       <c r="B365" s="12" t="s">
@@ -22629,8 +23095,11 @@
       </c>
       <c r="G365" s="5"/>
       <c r="H365" s="2"/>
-    </row>
-    <row r="366" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L365" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
         <v>249</v>
       </c>
@@ -22646,7 +23115,7 @@
       <c r="G366" s="5"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
         <v>256</v>
       </c>
@@ -22662,7 +23131,7 @@
       <c r="G367" s="5"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="12" t="s">
         <v>263</v>
       </c>
@@ -22678,7 +23147,7 @@
       <c r="G368" s="5"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="12" t="s">
         <v>266</v>
       </c>
@@ -22694,7 +23163,7 @@
       <c r="G369" s="5"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
         <v>271</v>
       </c>
@@ -22710,7 +23179,7 @@
       <c r="G370" s="5"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
         <v>279</v>
       </c>
@@ -22726,7 +23195,7 @@
       <c r="G371" s="5"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A372" s="12" t="s">
         <v>281</v>
       </c>
@@ -22742,7 +23211,7 @@
       <c r="G372" s="5"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A373" s="12" t="s">
         <v>282</v>
       </c>
@@ -22758,7 +23227,7 @@
       <c r="G373" s="5"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
         <v>294</v>
       </c>
@@ -22774,7 +23243,7 @@
       <c r="G374" s="5"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
         <v>295</v>
       </c>
@@ -22790,7 +23259,7 @@
       <c r="G375" s="5"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="12" t="s">
         <v>332</v>
       </c>
@@ -22806,7 +23275,7 @@
       <c r="G376" s="5"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="12" t="s">
         <v>334</v>
       </c>
@@ -22822,7 +23291,7 @@
       <c r="G377" s="5"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
         <v>335</v>
       </c>
@@ -22838,7 +23307,7 @@
       <c r="G378" s="5"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="12" t="s">
         <v>337</v>
       </c>
@@ -22854,7 +23323,7 @@
       <c r="G379" s="5"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="12" t="s">
         <v>341</v>
       </c>
@@ -22870,7 +23339,7 @@
       <c r="G380" s="5"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
         <v>343</v>
       </c>
@@ -22886,7 +23355,7 @@
       <c r="G381" s="5"/>
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
         <v>344</v>
       </c>
@@ -22902,7 +23371,7 @@
       <c r="G382" s="5"/>
       <c r="H382" s="2"/>
     </row>
-    <row r="383" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
         <v>347</v>
       </c>
@@ -22918,8 +23387,8 @@
       <c r="G383" s="5"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A384" s="12" t="s">
+    <row r="384" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="15" t="s">
         <v>350</v>
       </c>
       <c r="B384" s="12" t="s">
@@ -22933,8 +23402,14 @@
       </c>
       <c r="G384" s="5"/>
       <c r="H384" s="2"/>
-    </row>
-    <row r="385" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="K384" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
         <v>104</v>
       </c>
@@ -22950,8 +23425,8 @@
       <c r="G385" s="5"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A386" s="12" t="s">
+    <row r="386" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="21" t="s">
         <v>353</v>
       </c>
       <c r="B386" s="12" t="s">
@@ -22965,8 +23440,11 @@
       </c>
       <c r="G386" s="5"/>
       <c r="H386" s="2"/>
-    </row>
-    <row r="387" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L386" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
         <v>357</v>
       </c>
@@ -22982,7 +23460,7 @@
       <c r="G387" s="5"/>
       <c r="H387" s="2"/>
     </row>
-    <row r="388" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
         <v>358</v>
       </c>
@@ -22998,7 +23476,7 @@
       <c r="G388" s="5"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A389" s="12" t="s">
         <v>359</v>
       </c>
@@ -23014,7 +23492,7 @@
       <c r="G389" s="5"/>
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
         <v>360</v>
       </c>
@@ -23030,7 +23508,7 @@
       <c r="G390" s="5"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
         <v>361</v>
       </c>
@@ -23046,7 +23524,7 @@
       <c r="G391" s="5"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
         <v>363</v>
       </c>
@@ -23062,7 +23540,7 @@
       <c r="G392" s="5"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
         <v>364</v>
       </c>
@@ -23078,7 +23556,7 @@
       <c r="G393" s="5"/>
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A394" s="12" t="s">
         <v>366</v>
       </c>
@@ -23094,8 +23572,8 @@
       <c r="G394" s="5"/>
       <c r="H394" s="2"/>
     </row>
-    <row r="395" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A395" s="12" t="s">
+    <row r="395" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="21" t="s">
         <v>368</v>
       </c>
       <c r="B395" s="12" t="s">
@@ -23109,8 +23587,11 @@
       </c>
       <c r="G395" s="5"/>
       <c r="H395" s="2"/>
-    </row>
-    <row r="396" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L395" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
         <v>374</v>
       </c>
@@ -23126,7 +23607,7 @@
       <c r="G396" s="5"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
         <v>377</v>
       </c>
@@ -23142,7 +23623,7 @@
       <c r="G397" s="5"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A398" s="12" t="s">
         <v>380</v>
       </c>
@@ -23158,7 +23639,7 @@
       <c r="G398" s="5"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
         <v>384</v>
       </c>
@@ -23174,7 +23655,7 @@
       <c r="G399" s="5"/>
       <c r="H399" s="2"/>
     </row>
-    <row r="400" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
         <v>385</v>
       </c>
@@ -23287,13 +23768,13 @@
         <v>783</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I406" s="2" t="s">
         <v>781</v>
@@ -23305,7 +23786,7 @@
         <v>793</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -23325,13 +23806,13 @@
         <v>783</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I407" s="2" t="s">
         <v>781</v>
@@ -23343,7 +23824,7 @@
         <v>793</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -23363,13 +23844,13 @@
         <v>783</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I408" s="2" t="s">
         <v>781</v>
@@ -23381,7 +23862,7 @@
         <v>788</v>
       </c>
       <c r="L408" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -23401,13 +23882,13 @@
         <v>783</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I409" s="2" t="s">
         <v>781</v>
@@ -23419,7 +23900,7 @@
         <v>793</v>
       </c>
       <c r="L409" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -23439,13 +23920,13 @@
         <v>783</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I410" s="2" t="s">
         <v>781</v>
@@ -23457,7 +23938,7 @@
         <v>793</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -23477,13 +23958,13 @@
         <v>783</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I411" s="2" t="s">
         <v>781</v>
@@ -23495,7 +23976,7 @@
         <v>793</v>
       </c>
       <c r="L411" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -23515,13 +23996,13 @@
         <v>783</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I412" s="2" t="s">
         <v>781</v>
@@ -23533,7 +24014,7 @@
         <v>793</v>
       </c>
       <c r="L412" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -23553,13 +24034,13 @@
         <v>783</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I413" s="2" t="s">
         <v>781</v>
@@ -23571,7 +24052,7 @@
         <v>793</v>
       </c>
       <c r="L413" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
